--- a/Test Plan - API.xlsx
+++ b/Test Plan - API.xlsx
@@ -170,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,11 +406,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -480,177 +489,187 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1018,21 +1037,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1043,10 +1062,10 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,10 +1094,10 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1088,10 +1107,10 @@
       <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="14" t="s">
         <v>13</v>
       </c>
@@ -1114,77 +1133,77 @@
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>1</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="6"/>
       <c r="F7" s="20">
         <v>1</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="6"/>
       <c r="F8" s="21">
         <v>2</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="38"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="6"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -1200,15 +1219,15 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1220,54 +1239,54 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="60" t="s">
+      <c r="C13" s="68"/>
+      <c r="D13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="44" t="s">
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>1</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="62" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="25" t="s">
         <v>34</v>
       </c>
@@ -1275,84 +1294,84 @@
       <c r="F15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="54" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79">
+      <c r="A19" s="40">
         <v>2</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="37" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="62" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="25" t="s">
         <v>35</v>
       </c>
@@ -1360,67 +1379,67 @@
       <c r="F20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="54" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="27" t="s">
+      <c r="E22" s="29"/>
+      <c r="F22" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79">
+      <c r="A23" s="40">
         <v>3</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="50" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="62" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="25" t="s">
@@ -1430,11 +1449,11 @@
       <c r="F24" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
@@ -1443,50 +1462,50 @@
       <c r="D25" s="25"/>
       <c r="E25" s="26"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="29"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="37" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="37" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="25" t="s">
         <v>46</v>
       </c>
@@ -1494,46 +1513,46 @@
       <c r="F28" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="22"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F15:H17"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:K6"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I14:K18"/>
     <mergeCell ref="F18:H18"/>
@@ -1550,32 +1569,32 @@
     <mergeCell ref="F20:H21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D28:E29"/>
     <mergeCell ref="F28:H29"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="F15:H17"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <conditionalFormatting sqref="I23:K29 I19">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
@@ -1593,6 +1612,9 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G7:K7" r:id="rId1" display="Four_companies_data.csv"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
